--- a/fig/typology-flowchart.xlsx
+++ b/fig/typology-flowchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason.brunson/Documents/research/tahda/imsr/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B782D893-0D97-9146-97D1-9516072C6FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9C90E-F000-D54B-90F9-98C3DFBD193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16520" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{4E28D78B-A5F8-3448-BD2F-2E71EDA01372}"/>
   </bookViews>
@@ -284,6 +284,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
@@ -337,6 +338,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
@@ -390,6 +392,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:tailEnd type="triangle" w="lg" len="lg"/>
         </a:ln>
       </xdr:spPr>
@@ -442,7 +445,9 @@
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="25400"/>
+        <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -494,6 +499,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:headEnd type="triangle" w="lg" len="lg"/>
           <a:tailEnd type="none" w="lg" len="lg"/>
         </a:ln>
@@ -548,6 +554,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:headEnd type="triangle" w="lg" len="lg"/>
           <a:tailEnd type="none" w="lg" len="lg"/>
         </a:ln>
@@ -602,6 +609,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:headEnd type="none" w="lg" len="lg"/>
           <a:tailEnd type="none" w="lg" len="lg"/>
         </a:ln>
@@ -818,6 +826,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
+          <a:prstDash val="sysDash"/>
           <a:headEnd type="triangle" w="lg" len="lg"/>
           <a:tailEnd type="none" w="lg" len="lg"/>
         </a:ln>
@@ -1142,7 +1151,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fig/typology-flowchart.xlsx
+++ b/fig/typology-flowchart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jason.brunson/Documents/research/tahda/imsr/fig/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncorybrunson/Documents/professional/research/tahda/imsr/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D9C90E-F000-D54B-90F9-98C3DFBD193B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17D73C-0A20-D34E-8F65-1079D9A47F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16520" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{4E28D78B-A5F8-3448-BD2F-2E71EDA01372}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{4E28D78B-A5F8-3448-BD2F-2E71EDA01372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,14 +50,14 @@
 models</t>
   </si>
   <si>
-    <t>optimize</t>
+    <t>Fit
+models</t>
   </si>
   <si>
-    <t>fit</t>
+    <t>Supervise</t>
   </si>
   <si>
-    <t>Build
-models</t>
+    <t>Optimize</t>
   </si>
 </sst>
 </file>
@@ -108,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -127,6 +127,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,7 +1154,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1174,10 +1177,11 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="5"/>
     </row>
@@ -1190,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>3</v>
@@ -1200,7 +1204,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="3"/>
       <c r="I6" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/fig/typology-flowchart.xlsx
+++ b/fig/typology-flowchart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasoncorybrunson/Documents/professional/research/tahda/imsr/fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F17D73C-0A20-D34E-8F65-1079D9A47F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C9176-CC70-8E4A-A7AF-F8ACB08CC07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{4E28D78B-A5F8-3448-BD2F-2E71EDA01372}"/>
   </bookViews>
@@ -54,10 +54,10 @@
 models</t>
   </si>
   <si>
-    <t>Supervise</t>
+    <t>Learn (Supervise)</t>
   </si>
   <si>
-    <t>Optimize</t>
+    <t>Train (Optimize)</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1154,7 @@
   <dimension ref="B1:J7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2"/>
